--- a/WinterGrab2_AugandFebkits.xlsx
+++ b/WinterGrab2_AugandFebkits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8ECF9-F68F-4095-9164-B9A2B8F4D3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F20B5-C811-484A-8309-7CB47125D242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kit contents" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="152">
   <si>
     <t>Analyte</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Water Isotopes</t>
+  </si>
+  <si>
+    <t>50 mL centrifuge tube (x2)</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -896,14 +902,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -913,6 +914,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,10 +1167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1365,11 +1370,11 @@
         <v>14</v>
       </c>
       <c r="G11" s="59">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="58">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>136</v>
@@ -1629,11 +1634,11 @@
       </c>
       <c r="G21" s="57">
         <f>SUM(G9,G11,G13,G14,G15,G16,G19)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H21" s="58">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="I21" s="57">
         <v>0</v>
@@ -1893,7 +1898,18 @@
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3199,7 @@
       </c>
       <c r="C13" s="12">
         <f>'Kit contents'!H21</f>
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="46"/>
@@ -4188,10 +4204,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4354,6 +4370,15 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4365,10 +4390,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4387,10 +4412,12 @@
     <col min="12" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="12.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="31" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="54" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="54" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>100</v>
       </c>
@@ -4440,27 +4467,29 @@
         <v>55</v>
       </c>
       <c r="Q1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="51"/>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
@@ -4468,992 +4497,1009 @@
       <c r="AC1" s="51"/>
       <c r="AD1" s="51"/>
       <c r="AE1" s="51"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AF1" s="51"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="76">
-        <v>1</v>
-      </c>
-      <c r="G2" s="76">
-        <v>1</v>
-      </c>
-      <c r="H2" s="80">
-        <v>1</v>
-      </c>
-      <c r="I2" s="80">
-        <v>1</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="76">
-        <v>1</v>
-      </c>
-      <c r="O2" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="74"/>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76">
+        <v>1</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="74">
+        <v>1</v>
+      </c>
+      <c r="G2" s="74">
+        <v>1</v>
+      </c>
+      <c r="H2" s="77">
+        <v>1</v>
+      </c>
+      <c r="I2" s="77">
+        <v>1</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="74">
+        <v>1</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="72"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79">
-        <v>1</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="76">
-        <v>1</v>
-      </c>
-      <c r="G3" s="76">
-        <v>1</v>
-      </c>
-      <c r="H3" s="80">
-        <v>1</v>
-      </c>
-      <c r="I3" s="80">
-        <v>1</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="76">
-        <v>1</v>
-      </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="74"/>
-    </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76">
+        <v>1</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="74">
+        <v>1</v>
+      </c>
+      <c r="G3" s="74">
+        <v>1</v>
+      </c>
+      <c r="H3" s="77">
+        <v>1</v>
+      </c>
+      <c r="I3" s="77">
+        <v>1</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3" s="75"/>
+      <c r="P3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="74"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="72"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76">
         <v>2</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="76">
-        <v>1</v>
-      </c>
-      <c r="G4" s="76">
-        <v>1</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="76">
-        <v>1</v>
-      </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="76"/>
-      <c r="W4" s="75"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="74">
+        <v>1</v>
+      </c>
+      <c r="G4" s="74">
+        <v>1</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="74">
+        <v>1</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="74"/>
       <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y4" s="72"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79">
-        <v>1</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="76">
-        <v>1</v>
-      </c>
-      <c r="G5" s="76">
-        <v>1</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="76">
-        <v>1</v>
-      </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76">
+        <v>1</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="74">
+        <v>1</v>
+      </c>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="74"/>
       <c r="X5" s="73"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y5" s="72"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76">
         <v>2</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="76">
-        <v>1</v>
-      </c>
-      <c r="G6" s="76">
-        <v>1</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="76">
-        <v>1</v>
-      </c>
-      <c r="O6" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="74"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="74"/>
+      <c r="E6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="74">
+        <v>1</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="74"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="72"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76">
         <v>4</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="76">
-        <v>1</v>
-      </c>
-      <c r="G7" s="76">
-        <v>1</v>
-      </c>
-      <c r="H7" s="80">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="74">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74">
+        <v>1</v>
+      </c>
+      <c r="H7" s="77">
         <v>4</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="77">
         <v>4</v>
       </c>
-      <c r="J7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="76">
-        <v>1</v>
-      </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V7" s="76"/>
-      <c r="W7" s="75"/>
+      <c r="J7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="74">
+        <v>1</v>
+      </c>
+      <c r="O7" s="75"/>
+      <c r="P7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="74"/>
       <c r="X7" s="73"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y7" s="72"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="76">
-        <v>1</v>
-      </c>
-      <c r="G8" s="76">
-        <v>1</v>
-      </c>
-      <c r="H8" s="80">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="74">
+        <v>1</v>
+      </c>
+      <c r="H8" s="77">
         <v>2</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="77">
         <v>2</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="76">
-        <v>1</v>
-      </c>
-      <c r="O8" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U8" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="74">
+        <v>1</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="74"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="72"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78">
         <v>2</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="76">
-        <v>1</v>
-      </c>
-      <c r="G9" s="76">
-        <v>1</v>
-      </c>
-      <c r="H9" s="80">
+      <c r="D9" s="74"/>
+      <c r="E9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="74">
+        <v>1</v>
+      </c>
+      <c r="G9" s="74">
+        <v>1</v>
+      </c>
+      <c r="H9" s="77">
         <v>2</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="77">
         <v>2</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="76">
-        <v>1</v>
-      </c>
-      <c r="O9" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="76"/>
-      <c r="W9" s="75"/>
+      <c r="J9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="74">
+        <v>1</v>
+      </c>
+      <c r="O9" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="74"/>
       <c r="X9" s="73"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y9" s="72"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76">
         <v>2</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="76">
-        <v>1</v>
-      </c>
-      <c r="G10" s="76">
-        <v>1</v>
-      </c>
-      <c r="H10" s="80">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="74">
+        <v>1</v>
+      </c>
+      <c r="G10" s="74">
+        <v>1</v>
+      </c>
+      <c r="H10" s="77">
         <v>2</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="77">
         <v>2</v>
       </c>
-      <c r="J10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="76">
-        <v>1</v>
-      </c>
-      <c r="O10" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="75"/>
+      <c r="J10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="74">
+        <v>1</v>
+      </c>
+      <c r="O10" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="74"/>
       <c r="X10" s="73"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y10" s="72"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78">
         <v>2</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="76">
-        <v>1</v>
-      </c>
-      <c r="G11" s="76">
-        <v>1</v>
-      </c>
-      <c r="H11" s="80">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="74">
+        <v>1</v>
+      </c>
+      <c r="G11" s="74">
+        <v>1</v>
+      </c>
+      <c r="H11" s="77">
         <v>2</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="77">
         <v>2</v>
       </c>
-      <c r="J11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="76">
-        <v>1</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="74"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="74">
+        <v>1</v>
+      </c>
+      <c r="O11" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="74"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="72"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76">
         <v>2</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="76">
-        <v>1</v>
-      </c>
-      <c r="G12" s="76">
-        <v>1</v>
-      </c>
-      <c r="H12" s="80">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12" s="74">
+        <v>1</v>
+      </c>
+      <c r="H12" s="77">
         <v>2</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="77">
         <v>2</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="76">
-        <v>1</v>
-      </c>
-      <c r="O12" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="74"/>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="74">
+        <v>1</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="74"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="72"/>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76">
         <v>2</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="76">
-        <v>1</v>
-      </c>
-      <c r="G13" s="76">
-        <v>1</v>
-      </c>
-      <c r="H13" s="80">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="74">
+        <v>1</v>
+      </c>
+      <c r="G13" s="74">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77">
         <v>2</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="77">
         <v>2</v>
       </c>
-      <c r="J13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="76">
-        <v>1</v>
-      </c>
-      <c r="O13" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U13" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="74"/>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="74">
+        <v>1</v>
+      </c>
+      <c r="O13" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="74"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="72"/>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79">
+      <c r="B14" s="76"/>
+      <c r="C14" s="76">
         <v>2</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="76">
-        <v>1</v>
-      </c>
-      <c r="G14" s="76">
-        <v>1</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="76">
-        <v>1</v>
-      </c>
-      <c r="O14" s="78"/>
-      <c r="P14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="76"/>
-      <c r="W14" s="75"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="74">
+        <v>1</v>
+      </c>
+      <c r="G14" s="74">
+        <v>1</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="74">
+        <v>1</v>
+      </c>
+      <c r="O14" s="75"/>
+      <c r="P14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="74"/>
       <c r="X14" s="73"/>
-    </row>
-    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y14" s="72"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79">
-        <v>1</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="76">
-        <v>1</v>
-      </c>
-      <c r="G15" s="76">
-        <v>1</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="76">
-        <v>1</v>
-      </c>
-      <c r="O15" s="78"/>
-      <c r="P15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" s="76"/>
-      <c r="W15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76">
+        <v>1</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="74">
+        <v>1</v>
+      </c>
+      <c r="G15" s="74">
+        <v>1</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="74">
+        <v>1</v>
+      </c>
+      <c r="O15" s="75"/>
+      <c r="P15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="74"/>
       <c r="X15" s="73"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y15" s="72"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="76">
-        <v>1</v>
-      </c>
-      <c r="G16" s="76">
-        <v>1</v>
-      </c>
-      <c r="H16" s="80">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="74">
+        <v>1</v>
+      </c>
+      <c r="G16" s="74">
+        <v>1</v>
+      </c>
+      <c r="H16" s="77">
         <v>3</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="77">
         <v>3</v>
       </c>
-      <c r="J16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="76">
-        <v>1</v>
-      </c>
-      <c r="O16" s="78"/>
-      <c r="P16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="T16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U16" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="V16" s="76"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="74"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="74">
+        <v>1</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="74"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="72"/>
+    </row>
+    <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79">
-        <v>1</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="77">
-        <v>1</v>
-      </c>
-      <c r="G17" s="77">
-        <v>1</v>
-      </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="77">
-        <v>1</v>
-      </c>
-      <c r="O17" s="78"/>
-      <c r="P17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="T17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76">
+        <v>1</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1</v>
+      </c>
+      <c r="G17" s="73">
+        <v>1</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="73">
+        <v>1</v>
+      </c>
+      <c r="O17" s="75"/>
+      <c r="P17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="73"/>
       <c r="X17" s="73"/>
-    </row>
-    <row r="18" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y17" s="72"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
@@ -5489,15 +5535,16 @@
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="52"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="82">
+    <row r="20" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="79">
         <f>SUM(C2:C17)</f>
         <v>25</v>
       </c>
@@ -5539,7 +5586,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:R20" si="1">SUM(N2:N18)</f>
+        <f t="shared" ref="N20:S20" si="1">SUM(N2:N18)</f>
         <v>16</v>
       </c>
       <c r="O20" s="2">
@@ -5550,11 +5597,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
